--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>3.885963377610415</v>
+        <v>20.92852548419478</v>
       </c>
       <c r="R2">
-        <v>3.885963377610415</v>
+        <v>188.356729357753</v>
       </c>
       <c r="S2">
-        <v>0.0001899622887985754</v>
+        <v>0.0006611122146741356</v>
       </c>
       <c r="T2">
-        <v>0.0001899622887985754</v>
+        <v>0.0006611122146741353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>65.35574093204187</v>
+        <v>184.8152415437069</v>
       </c>
       <c r="R3">
-        <v>65.35574093204187</v>
+        <v>1663.337173893362</v>
       </c>
       <c r="S3">
-        <v>0.003194864420264251</v>
+        <v>0.005838137700373034</v>
       </c>
       <c r="T3">
-        <v>0.003194864420264251</v>
+        <v>0.005838137700373032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>6.455464276011159</v>
+        <v>37.23939356700078</v>
       </c>
       <c r="R4">
-        <v>6.455464276011159</v>
+        <v>335.154542103007</v>
       </c>
       <c r="S4">
-        <v>0.0003155703360958076</v>
+        <v>0.001176357023947732</v>
       </c>
       <c r="T4">
-        <v>0.0003155703360958076</v>
+        <v>0.001176357023947732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>3.361805755621771</v>
+        <v>13.75040102447733</v>
       </c>
       <c r="R5">
-        <v>3.361805755621771</v>
+        <v>123.753609220296</v>
       </c>
       <c r="S5">
-        <v>0.0001643392522723254</v>
+        <v>0.0004343620901919202</v>
       </c>
       <c r="T5">
-        <v>0.0001643392522723254</v>
+        <v>0.0004343620901919199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>48.69325483195662</v>
+        <v>12.38425356332511</v>
       </c>
       <c r="R6">
-        <v>48.69325483195662</v>
+        <v>111.458282069926</v>
       </c>
       <c r="S6">
-        <v>0.00238033178341963</v>
+        <v>0.0003912067912533556</v>
       </c>
       <c r="T6">
-        <v>0.00238033178341963</v>
+        <v>0.0003912067912533554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>67.18143196290826</v>
+        <v>150.9738708148073</v>
       </c>
       <c r="R7">
-        <v>67.18143196290826</v>
+        <v>1358.764837333266</v>
       </c>
       <c r="S7">
-        <v>0.003284111902332823</v>
+        <v>0.004769120985980648</v>
       </c>
       <c r="T7">
-        <v>0.003284111902332823</v>
+        <v>0.004769120985980645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>1129.885136877277</v>
+        <v>131.5914572891789</v>
       </c>
       <c r="R8">
-        <v>1129.885136877277</v>
+        <v>1184.32311560261</v>
       </c>
       <c r="S8">
-        <v>0.05523355364524419</v>
+        <v>0.004156848977551997</v>
       </c>
       <c r="T8">
-        <v>0.05523355364524419</v>
+        <v>0.004156848977551995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>111.6035566744108</v>
+        <v>1162.055443531104</v>
       </c>
       <c r="R9">
-        <v>111.6035566744108</v>
+        <v>10458.49899177994</v>
       </c>
       <c r="S9">
-        <v>0.005455652821146589</v>
+        <v>0.03670822621627906</v>
       </c>
       <c r="T9">
-        <v>0.005455652821146589</v>
+        <v>0.03670822621627905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>58.11967399000536</v>
+        <v>234.1486537953989</v>
       </c>
       <c r="R10">
-        <v>58.11967399000536</v>
+        <v>2107.33788415859</v>
       </c>
       <c r="S10">
-        <v>0.002841134931682651</v>
+        <v>0.007396533271803953</v>
       </c>
       <c r="T10">
-        <v>0.002841134931682651</v>
+        <v>0.007396533271803949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>9.00621724652609</v>
+        <v>0.905288</v>
       </c>
       <c r="N11">
-        <v>9.00621724652609</v>
+        <v>2.715864</v>
       </c>
       <c r="O11">
-        <v>0.3811538565477776</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P11">
-        <v>0.3811538565477776</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q11">
-        <v>841.820230574908</v>
+        <v>86.45784962194668</v>
       </c>
       <c r="R11">
-        <v>841.820230574908</v>
+        <v>778.12064659752</v>
       </c>
       <c r="S11">
-        <v>0.0411517253812334</v>
+        <v>0.002731121238459657</v>
       </c>
       <c r="T11">
-        <v>0.0411517253812334</v>
+        <v>0.002731121238459656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.718740829948282</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N12">
-        <v>0.718740829948282</v>
+        <v>2.446034</v>
       </c>
       <c r="O12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q12">
-        <v>141.4520881764719</v>
+        <v>77.86797856673557</v>
       </c>
       <c r="R12">
-        <v>141.4520881764719</v>
+        <v>700.8118071006201</v>
       </c>
       <c r="S12">
-        <v>0.006914775002811259</v>
+        <v>0.002459775381754915</v>
       </c>
       <c r="T12">
-        <v>0.006914775002811259</v>
+        <v>0.002459775381754913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0880808476034</v>
+        <v>9.939698</v>
       </c>
       <c r="N13">
-        <v>12.0880808476034</v>
+        <v>29.819094</v>
       </c>
       <c r="O13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q13">
-        <v>2378.999782247732</v>
+        <v>949.2724027840468</v>
       </c>
       <c r="R13">
-        <v>2378.999782247732</v>
+        <v>8543.451625056421</v>
       </c>
       <c r="S13">
-        <v>0.116295548818319</v>
+        <v>0.02998661233958141</v>
       </c>
       <c r="T13">
-        <v>0.116295548818319</v>
+        <v>0.0299866123395814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1939911163792</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N14">
-        <v>1.1939911163792</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O14">
-        <v>0.05053112824557491</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P14">
-        <v>0.05053112824557491</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q14">
-        <v>234.9839185957303</v>
+        <v>554.031833664291</v>
       </c>
       <c r="R14">
-        <v>234.9839185957303</v>
+        <v>4986.286502978618</v>
       </c>
       <c r="S14">
-        <v>0.01148700558129094</v>
+        <v>0.01750133867913362</v>
       </c>
       <c r="T14">
-        <v>0.01148700558129094</v>
+        <v>0.01750133867913361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6217935744948609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N15">
-        <v>0.6217935744948609</v>
+        <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.02631504575206202</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P15">
-        <v>0.02631504575206202</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q15">
-        <v>122.3723432177069</v>
+        <v>4892.534222675951</v>
       </c>
       <c r="R15">
-        <v>122.3723432177069</v>
+        <v>44032.80800408356</v>
       </c>
       <c r="S15">
-        <v>0.005982076552037687</v>
+        <v>0.1545505027463594</v>
       </c>
       <c r="T15">
-        <v>0.005982076552037687</v>
+        <v>0.1545505027463594</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.00621724652609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N16">
-        <v>9.00621724652609</v>
+        <v>7.355213</v>
       </c>
       <c r="O16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q16">
-        <v>1772.472333572226</v>
+        <v>985.8224134353269</v>
       </c>
       <c r="R16">
-        <v>1772.472333572226</v>
+        <v>8872.40172091794</v>
       </c>
       <c r="S16">
-        <v>0.08664592756007392</v>
+        <v>0.03114119241290189</v>
       </c>
       <c r="T16">
-        <v>0.08664592756007392</v>
+        <v>0.03114119241290187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.718740829948282</v>
+        <v>0.905288</v>
       </c>
       <c r="N17">
-        <v>0.718740829948282</v>
+        <v>2.715864</v>
       </c>
       <c r="O17">
-        <v>0.03041796924217072</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P17">
-        <v>0.03041796924217072</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q17">
-        <v>120.8030315980633</v>
+        <v>364.0084390543306</v>
       </c>
       <c r="R17">
-        <v>120.8030315980633</v>
+        <v>3276.075951488976</v>
       </c>
       <c r="S17">
-        <v>0.005905361977519737</v>
+        <v>0.01149868037693448</v>
       </c>
       <c r="T17">
-        <v>0.005905361977519737</v>
+        <v>0.01149868037693447</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.0880808476034</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N18">
-        <v>12.0880808476034</v>
+        <v>2.446034</v>
       </c>
       <c r="O18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q18">
-        <v>2031.715399691504</v>
+        <v>327.8430062086396</v>
       </c>
       <c r="R18">
-        <v>2031.715399691504</v>
+        <v>2950.587055877756</v>
       </c>
       <c r="S18">
-        <v>0.09931882264676441</v>
+        <v>0.010356248750716</v>
       </c>
       <c r="T18">
-        <v>0.09931882264676441</v>
+        <v>0.01035624875071599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.1939911163792</v>
+        <v>9.939698</v>
       </c>
       <c r="N19">
-        <v>1.1939911163792</v>
+        <v>29.819094</v>
       </c>
       <c r="O19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q19">
-        <v>200.6811642663214</v>
+        <v>3996.66620307731</v>
       </c>
       <c r="R19">
-        <v>200.6811642663214</v>
+        <v>35969.99582769579</v>
       </c>
       <c r="S19">
-        <v>0.00981014219084984</v>
+        <v>0.1262508840780557</v>
       </c>
       <c r="T19">
-        <v>0.00981014219084984</v>
+        <v>0.1262508840780556</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6217935744948609</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N20">
-        <v>0.6217935744948609</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O20">
-        <v>0.02631504575206202</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P20">
-        <v>0.02631504575206202</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q20">
-        <v>104.5085317228748</v>
+        <v>264.8446588119955</v>
       </c>
       <c r="R20">
-        <v>104.5085317228748</v>
+        <v>2383.601929307959</v>
       </c>
       <c r="S20">
-        <v>0.005108818060262774</v>
+        <v>0.008366190874939739</v>
       </c>
       <c r="T20">
-        <v>0.005108818060262774</v>
+        <v>0.008366190874939738</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.00621724652609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N21">
-        <v>9.00621724652609</v>
+        <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.3811538565477776</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P21">
-        <v>0.3811538565477776</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q21">
-        <v>1513.72831663035</v>
+        <v>2338.785387764876</v>
       </c>
       <c r="R21">
-        <v>1513.72831663035</v>
+        <v>21049.06848988389</v>
       </c>
       <c r="S21">
-        <v>0.07399742810317966</v>
+        <v>0.07388000595266178</v>
       </c>
       <c r="T21">
-        <v>0.07399742810317966</v>
+        <v>0.07388000595266177</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.718740829948282</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N22">
-        <v>0.718740829948282</v>
+        <v>7.355213</v>
       </c>
       <c r="O22">
-        <v>0.03041796924217072</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P22">
-        <v>0.03041796924217072</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q22">
-        <v>263.0392596251315</v>
+        <v>471.2541497998135</v>
       </c>
       <c r="R22">
-        <v>263.0392596251315</v>
+        <v>4241.287348198322</v>
       </c>
       <c r="S22">
-        <v>0.01285846904532566</v>
+        <v>0.01488647037670262</v>
       </c>
       <c r="T22">
-        <v>0.01285846904532566</v>
+        <v>0.01488647037670262</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>12.0880808476034</v>
+        <v>0.905288</v>
       </c>
       <c r="N23">
-        <v>12.0880808476034</v>
+        <v>2.715864</v>
       </c>
       <c r="O23">
-        <v>0.5115820002124147</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P23">
-        <v>0.5115820002124147</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q23">
-        <v>4423.903170592279</v>
+        <v>174.0074937723653</v>
       </c>
       <c r="R23">
-        <v>4423.903170592279</v>
+        <v>1566.067443951288</v>
       </c>
       <c r="S23">
-        <v>0.2162590560042161</v>
+        <v>0.005496731227654874</v>
       </c>
       <c r="T23">
-        <v>0.2162590560042161</v>
+        <v>0.005496731227654873</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.1939911163792</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N24">
-        <v>1.1939911163792</v>
+        <v>2.446034</v>
       </c>
       <c r="O24">
-        <v>0.05053112824557491</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P24">
-        <v>0.05053112824557491</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q24">
-        <v>436.9677165466836</v>
+        <v>156.7192782930198</v>
       </c>
       <c r="R24">
-        <v>436.9677165466836</v>
+        <v>1410.473504637178</v>
       </c>
       <c r="S24">
-        <v>0.02136082600380517</v>
+        <v>0.004950612943691424</v>
       </c>
       <c r="T24">
-        <v>0.02136082600380517</v>
+        <v>0.004950612943691422</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6217935744948609</v>
+        <v>9.939698</v>
       </c>
       <c r="N25">
-        <v>0.6217935744948609</v>
+        <v>29.819094</v>
       </c>
       <c r="O25">
-        <v>0.02631504575206202</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P25">
-        <v>0.02631504575206202</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q25">
-        <v>227.5592461980505</v>
+        <v>1910.532270210355</v>
       </c>
       <c r="R25">
-        <v>227.5592461980505</v>
+        <v>17194.7904318932</v>
       </c>
       <c r="S25">
-        <v>0.0111240562621159</v>
+        <v>0.06035189728579049</v>
       </c>
       <c r="T25">
-        <v>0.0111240562621159</v>
+        <v>0.06035189728579048</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.00621724652609</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N26">
-        <v>9.00621724652609</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O26">
-        <v>0.3811538565477776</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P26">
-        <v>0.3811538565477776</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q26">
-        <v>3296.026353087213</v>
+        <v>554.5179077818048</v>
       </c>
       <c r="R26">
-        <v>3296.026353087213</v>
+        <v>4990.661170036243</v>
       </c>
       <c r="S26">
-        <v>0.1611236774850635</v>
+        <v>0.01751669329819495</v>
       </c>
       <c r="T26">
-        <v>0.1611236774850635</v>
+        <v>0.01751669329819495</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.718740829948282</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N27">
-        <v>0.718740829948282</v>
+        <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.03041796924217072</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P27">
-        <v>0.03041796924217072</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q27">
-        <v>25.88338372750895</v>
+        <v>4896.826637136985</v>
       </c>
       <c r="R27">
-        <v>25.88338372750895</v>
+        <v>44071.43973423287</v>
       </c>
       <c r="S27">
-        <v>0.001265289025382663</v>
+        <v>0.1546860960366166</v>
       </c>
       <c r="T27">
-        <v>0.001265289025382663</v>
+        <v>0.1546860960366165</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.0880808476034</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N28">
-        <v>12.0880808476034</v>
+        <v>7.355213</v>
       </c>
       <c r="O28">
-        <v>0.5115820002124147</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P28">
-        <v>0.5115820002124147</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q28">
-        <v>435.3174636401054</v>
+        <v>986.6873145664887</v>
       </c>
       <c r="R28">
-        <v>435.3174636401054</v>
+        <v>8880.185831098397</v>
       </c>
       <c r="S28">
-        <v>0.02128015467760681</v>
+        <v>0.03116851381701745</v>
       </c>
       <c r="T28">
-        <v>0.02128015467760681</v>
+        <v>0.03116851381701743</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>1.1939911163792</v>
+        <v>0.905288</v>
       </c>
       <c r="N29">
-        <v>1.1939911163792</v>
+        <v>2.715864</v>
       </c>
       <c r="O29">
-        <v>0.05053112824557491</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P29">
-        <v>0.05053112824557491</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q29">
-        <v>42.99815586475505</v>
+        <v>364.327798105616</v>
       </c>
       <c r="R29">
-        <v>42.99815586475505</v>
+        <v>3278.950182950543</v>
       </c>
       <c r="S29">
-        <v>0.002101931312386557</v>
+        <v>0.01150876862561836</v>
       </c>
       <c r="T29">
-        <v>0.002101931312386557</v>
+        <v>0.01150876862561835</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6217935744948609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N30">
-        <v>0.6217935744948609</v>
+        <v>2.446034</v>
       </c>
       <c r="O30">
-        <v>0.02631504575206202</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P30">
-        <v>0.02631504575206202</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q30">
-        <v>22.39210716484269</v>
+        <v>328.1306358902627</v>
       </c>
       <c r="R30">
-        <v>22.39210716484269</v>
+        <v>2953.175723012364</v>
       </c>
       <c r="S30">
-        <v>0.001094620693690682</v>
+        <v>0.01036533469879043</v>
       </c>
       <c r="T30">
-        <v>0.001094620693690682</v>
+        <v>0.01036533469879043</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.00621724652609</v>
+        <v>9.939698</v>
       </c>
       <c r="N31">
-        <v>9.00621724652609</v>
+        <v>29.819094</v>
       </c>
       <c r="O31">
-        <v>0.3811538565477776</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P31">
-        <v>0.3811538565477776</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q31">
-        <v>324.3330101921686</v>
+        <v>4000.172636967236</v>
       </c>
       <c r="R31">
-        <v>324.3330101921686</v>
+        <v>36001.55373270512</v>
       </c>
       <c r="S31">
-        <v>0.01585476623480747</v>
+        <v>0.1263616489896271</v>
       </c>
       <c r="T31">
-        <v>0.01585476623480747</v>
+        <v>0.126361648989627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H32">
+        <v>111.434855</v>
+      </c>
+      <c r="I32">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J32">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P32">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q32">
+        <v>51.18112504100945</v>
+      </c>
+      <c r="R32">
+        <v>460.6301253690851</v>
+      </c>
+      <c r="S32">
+        <v>0.001616763061063662</v>
+      </c>
+      <c r="T32">
+        <v>0.001616763061063662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H33">
+        <v>111.434855</v>
+      </c>
+      <c r="I33">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J33">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N33">
+        <v>36.503158</v>
+      </c>
+      <c r="O33">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P33">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q33">
+        <v>451.9693465302321</v>
+      </c>
+      <c r="R33">
+        <v>4067.72411877209</v>
+      </c>
+      <c r="S33">
+        <v>0.01427728178342422</v>
+      </c>
+      <c r="T33">
+        <v>0.01427728178342421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H34">
+        <v>111.434855</v>
+      </c>
+      <c r="I34">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J34">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N34">
+        <v>7.355213</v>
+      </c>
+      <c r="O34">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P34">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q34">
+        <v>91.06967712767944</v>
+      </c>
+      <c r="R34">
+        <v>819.627094149115</v>
+      </c>
+      <c r="S34">
+        <v>0.002876804483001307</v>
+      </c>
+      <c r="T34">
+        <v>0.002876804483001305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H35">
+        <v>111.434855</v>
+      </c>
+      <c r="I35">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J35">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.905288</v>
+      </c>
+      <c r="N35">
+        <v>2.715864</v>
+      </c>
+      <c r="O35">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P35">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q35">
+        <v>33.62687900441333</v>
+      </c>
+      <c r="R35">
+        <v>302.64191103972</v>
+      </c>
+      <c r="S35">
+        <v>0.001062241124821519</v>
+      </c>
+      <c r="T35">
+        <v>0.001062241124821519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H36">
+        <v>111.434855</v>
+      </c>
+      <c r="I36">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J36">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.446034</v>
+      </c>
+      <c r="O36">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P36">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q36">
+        <v>30.28593823500778</v>
+      </c>
+      <c r="R36">
+        <v>272.57344411507</v>
+      </c>
+      <c r="S36">
+        <v>0.0009567039835248303</v>
+      </c>
+      <c r="T36">
+        <v>0.0009567039835248299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H37">
+        <v>111.434855</v>
+      </c>
+      <c r="I37">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J37">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.939698</v>
+      </c>
+      <c r="N37">
+        <v>29.819094</v>
+      </c>
+      <c r="O37">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P37">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q37">
+        <v>369.2096017912633</v>
+      </c>
+      <c r="R37">
+        <v>3322.88641612137</v>
+      </c>
+      <c r="S37">
+        <v>0.01166298016090593</v>
+      </c>
+      <c r="T37">
+        <v>0.01166298016090592</v>
       </c>
     </row>
   </sheetData>
